--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_17-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_17-08.xlsx
@@ -32,15 +32,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOL 500MG 24 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AERIUS 5MG 20 F.C. TAB.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -59,9 +65,6 @@
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>0:0</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>BRIMILLERGY 0.025% EYE DROPS</t>
   </si>
   <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
     <t>CEFOTAX 2 GM VIAL</t>
   </si>
   <si>
@@ -143,6 +149,12 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>RESTOHERB SYRUP</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>SOLITRACT 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -218,6 +227,12 @@
     <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
   </si>
   <si>
+    <t>TELFAST DECONGESTANT 60/120MG 10 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>TOMEX PLUS 50 TABLETS</t>
   </si>
   <si>
@@ -239,6 +254,9 @@
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
   </si>
   <si>
+    <t>ZOVIRAX 400MG 10 TAB.</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -254,13 +272,19 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>محلول رينجر</t>
@@ -862,7 +886,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>57.82</v>
+        <v>16</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -888,11 +912,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>34</v>
+        <v>57.82</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -914,11 +938,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -926,7 +950,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -934,17 +958,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -952,7 +976,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -966,11 +990,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -986,17 +1010,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>9.5</v>
+        <v>141</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1004,7 +1028,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1012,17 +1036,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>27</v>
+        <v>9.5</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1038,17 +1062,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1064,17 +1088,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1090,17 +1114,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1116,17 +1140,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>43.329999999999998</v>
+        <v>78</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1142,17 +1166,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1168,17 +1192,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>21</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1186,7 +1210,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1194,17 +1218,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>27.5</v>
+        <v>44</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1212,7 +1236,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1220,17 +1244,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1238,7 +1262,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1246,17 +1270,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>24</v>
+        <v>27.5</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1264,7 +1288,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1272,7 +1296,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1282,7 +1306,7 @@
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1298,17 +1322,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1324,17 +1348,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1342,7 +1366,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1350,17 +1374,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1368,7 +1392,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1376,17 +1400,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1394,7 +1418,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1402,13 +1426,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1420,7 +1444,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1428,17 +1452,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1446,7 +1470,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1454,17 +1478,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1480,17 +1504,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1506,17 +1530,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1524,7 +1548,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1538,11 +1562,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>14.25</v>
+        <v>51</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1550,7 +1574,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1564,7 +1588,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1576,7 +1600,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1590,11 +1614,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>27.440000000000001</v>
+        <v>177</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1602,7 +1626,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1610,17 +1634,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>57</v>
+        <v>14.25</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1628,7 +1652,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1636,17 +1660,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1654,7 +1678,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1662,17 +1686,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>240</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1680,7 +1704,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1688,17 +1712,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1706,7 +1730,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1714,17 +1738,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1732,7 +1756,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1740,17 +1764,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1758,7 +1782,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1766,17 +1790,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1784,7 +1808,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1792,17 +1816,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1818,17 +1842,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>160.05000000000001</v>
+        <v>96</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1844,17 +1868,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1862,7 +1886,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1870,17 +1894,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1888,7 +1912,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1896,17 +1920,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>86.5</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1914,7 +1938,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1922,17 +1946,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1948,17 +1972,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1974,17 +1998,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>282</v>
+        <v>86.5</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2000,17 +2024,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>30.5</v>
+        <v>67</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2026,17 +2050,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2052,17 +2076,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2078,17 +2102,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>24</v>
+        <v>30.5</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2104,17 +2128,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>26.100000000000001</v>
+        <v>31.5</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2122,7 +2146,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2130,17 +2154,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2156,17 +2180,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>94.5</v>
+        <v>123</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2182,17 +2206,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2200,7 +2224,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2208,17 +2232,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>20</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2226,7 +2250,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2234,17 +2258,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2252,7 +2276,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2260,17 +2284,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>4</v>
+        <v>94.5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2278,7 +2302,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2286,17 +2310,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2304,7 +2328,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2312,51 +2336,181 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="K61" s="10">
-        <v>3656.4899999999998</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" ht="24.75" customHeight="1">
+      <c r="A61" s="6">
+        <v>58</v>
+      </c>
+      <c t="s" r="B61" s="7">
+        <v>84</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c t="s" r="H61" s="8">
         <v>85</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c t="s" r="F62" s="12">
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9">
+        <v>20</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c t="s" r="N61" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="6">
+        <v>59</v>
+      </c>
+      <c t="s" r="B62" s="7">
         <v>86</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-      <c t="s" r="I62" s="14">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c t="s" r="H62" s="8">
         <v>87</v>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9">
+        <v>16</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c t="s" r="N62" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" customHeight="1">
+      <c r="A63" s="6">
+        <v>60</v>
+      </c>
+      <c t="s" r="B63" s="7">
+        <v>88</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c t="s" r="H63" s="8">
+        <v>89</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9">
+        <v>12</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c t="s" r="N63" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" ht="24.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>61</v>
+      </c>
+      <c t="s" r="B64" s="7">
+        <v>90</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c t="s" r="H64" s="8">
+        <v>91</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9">
+        <v>15</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c t="s" r="N64" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>62</v>
+      </c>
+      <c t="s" r="B65" s="7">
+        <v>92</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c t="s" r="H65" s="8">
+        <v>83</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9">
+        <v>24</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c t="s" r="N65" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="K66" s="10">
+        <v>4022.9899999999998</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="11">
+        <v>93</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c t="s" r="F67" s="12">
+        <v>94</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13"/>
+      <c t="s" r="I67" s="14">
+        <v>95</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="197">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2535,10 +2689,25 @@
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="I62:N62"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:N67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
